--- a/data/37-intersection map LIN EV1 Solution.xlsx
+++ b/data/37-intersection map LIN EV1 Solution.xlsx
@@ -489,16 +489,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>16.17546152373336</v>
+        <v>11.37314754853382</v>
       </c>
       <c r="D2" t="n">
-        <v>16.17546152373336</v>
+        <v>11.37314754853382</v>
       </c>
       <c r="E2" t="n">
-        <v>9.364289244444635</v>
+        <v>9.161042400000403</v>
       </c>
       <c r="F2" t="n">
-        <v>9.364289244444635</v>
+        <v>9.161042400000403</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -512,16 +512,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>14.53785325040005</v>
+        <v>9.735539275200843</v>
       </c>
       <c r="D3" t="n">
-        <v>14.53785325040005</v>
+        <v>9.735539275200843</v>
       </c>
       <c r="E3" t="n">
-        <v>9.732904800000192</v>
+        <v>9.52965795555604</v>
       </c>
       <c r="F3" t="n">
-        <v>9.982904800000192</v>
+        <v>9.77965795555604</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -566,10 +566,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -612,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>14.35195164373338</v>
+        <v>9.549637668534146</v>
       </c>
       <c r="D8" t="n">
-        <v>14.35195164373338</v>
+        <v>9.549637668534146</v>
       </c>
       <c r="E8" t="n">
-        <v>10.02485368888917</v>
+        <v>9.821606844444874</v>
       </c>
       <c r="F8" t="n">
-        <v>10.02485368888917</v>
+        <v>9.821606844444874</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -652,16 +652,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>12.93654337040006</v>
+        <v>8.134229395201036</v>
       </c>
       <c r="D9" t="n">
-        <v>12.93654337040006</v>
+        <v>8.134229395201036</v>
       </c>
       <c r="E9" t="n">
-        <v>10.34346924444472</v>
+        <v>10.14022240000029</v>
       </c>
       <c r="F9" t="n">
-        <v>10.34346924444472</v>
+        <v>10.14022240000029</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -675,16 +675,16 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>10.70640176373341</v>
+        <v>5.904087788534284</v>
       </c>
       <c r="D10" t="n">
-        <v>10.70640176373341</v>
+        <v>5.904087788534284</v>
       </c>
       <c r="E10" t="n">
-        <v>10.84541813333361</v>
+        <v>10.64217128888918</v>
       </c>
       <c r="F10" t="n">
-        <v>11.09541813333361</v>
+        <v>10.89217128888918</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -700,16 +700,16 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>17.65894754853337</v>
+        <v>12.85663357333366</v>
       </c>
       <c r="D11" t="n">
-        <v>17.65894754853337</v>
+        <v>12.85663357333366</v>
       </c>
       <c r="E11" t="n">
-        <v>9.16104240000019</v>
+        <v>8.957795555555949</v>
       </c>
       <c r="F11" t="n">
-        <v>9.16104240000019</v>
+        <v>8.957795555555949</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -720,19 +720,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>18.41223357333336</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>18.41223357333336</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>9.057795555555714</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>9.057795555555714</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -756,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -802,10 +802,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -823,22 +823,22 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>10.17979349040007</v>
+        <v>5.377479515200857</v>
       </c>
       <c r="D16" t="n">
-        <v>22.89694160666665</v>
+        <v>19.20147951520091</v>
       </c>
       <c r="E16" t="n">
-        <v>11.21403368888917</v>
+        <v>11.01078684444492</v>
       </c>
       <c r="F16" t="n">
-        <v>14.89376404660519</v>
+        <v>15.01078684444493</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>3.679730357716024</v>
+        <v>4</v>
       </c>
       <c r="I16" t="inlineStr"/>
     </row>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>22</v>
+        <v>18.30453790853468</v>
       </c>
       <c r="D17" t="n">
-        <v>22</v>
+        <v>18.30453790853468</v>
       </c>
       <c r="E17" t="n">
-        <v>15.09571293549408</v>
+        <v>15.21273573333479</v>
       </c>
       <c r="F17" t="n">
-        <v>15.09571293549408</v>
+        <v>15.21273573333479</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -873,16 +873,16 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>21.47339172666667</v>
+        <v>17.77792963520105</v>
       </c>
       <c r="D18" t="n">
-        <v>21.47339172666667</v>
+        <v>17.77792963520105</v>
       </c>
       <c r="E18" t="n">
-        <v>15.21432849104964</v>
+        <v>15.33135128889037</v>
       </c>
       <c r="F18" t="n">
-        <v>15.21432849104964</v>
+        <v>15.33135128889037</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -919,16 +919,16 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>19.38324184666669</v>
+        <v>13.38324184666667</v>
       </c>
       <c r="D20" t="n">
-        <v>19.38324184666669</v>
+        <v>13.38324184666667</v>
       </c>
       <c r="E20" t="n">
-        <v>8.589180000000059</v>
+        <v>8.589180000000024</v>
       </c>
       <c r="F20" t="n">
-        <v>8.839180000000059</v>
+        <v>8.839180000000024</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>18.66329377305546</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>18.66329377305546</v>
+        <v>0</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -967,16 +967,16 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>20.28018345333335</v>
+        <v>14.28018345333333</v>
       </c>
       <c r="D22" t="n">
-        <v>20.28018345333335</v>
+        <v>14.28018345333333</v>
       </c>
       <c r="E22" t="n">
-        <v>8.38723111111117</v>
+        <v>8.387231111111129</v>
       </c>
       <c r="F22" t="n">
-        <v>8.38723111111117</v>
+        <v>8.387231111111129</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -996,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>17.4523349873894</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>17.4523349873894</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1013,16 +1013,16 @@
         <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>20.95492506000002</v>
+        <v>14.95492506</v>
       </c>
       <c r="D24" t="n">
-        <v>20.95492506000002</v>
+        <v>14.95492506</v>
       </c>
       <c r="E24" t="n">
-        <v>8.235282222222279</v>
+        <v>8.235282222222223</v>
       </c>
       <c r="F24" t="n">
-        <v>8.235282222222279</v>
+        <v>8.235282222222223</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1036,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -1059,16 +1059,16 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>16.19645421520006</v>
+        <v>16.74880827333343</v>
       </c>
       <c r="D26" t="n">
-        <v>16.19645421520006</v>
+        <v>16.74880827333343</v>
       </c>
       <c r="E26" t="n">
-        <v>16.47008866882742</v>
+        <v>18.33692864459995</v>
       </c>
       <c r="F26" t="n">
-        <v>16.72008866882742</v>
+        <v>18.58692864459995</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1081,25 +1081,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>14.71296819040005</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>23.63760827333332</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>16.92333551327186</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>18.33189613242168</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.408560619149822</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1108,19 +1108,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>18.26410024000003</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>18.26410024000003</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>16.18684182438297</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>16.18684182438297</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1154,19 +1154,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>19.67950851333335</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>19.67950851333335</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>15.86822626882742</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>15.86822626882742</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1180,16 +1180,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>20.20611678666668</v>
+        <v>16.51065469520104</v>
       </c>
       <c r="D31" t="n">
-        <v>20.20611678666668</v>
+        <v>16.51065469520104</v>
       </c>
       <c r="E31" t="n">
-        <v>15.49961071327186</v>
+        <v>15.6166335111126</v>
       </c>
       <c r="F31" t="n">
-        <v>15.74961071327186</v>
+        <v>15.8666335111126</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1234,10 +1234,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1280,10 +1280,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1317,19 +1317,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>15.24337975520106</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>15.24337975520106</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>16.15191573333484</v>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>16.15191573333484</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -1340,25 +1340,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>13.68330699520118</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>19.54665429813344</v>
       </c>
       <c r="E38" t="n">
-        <v>8</v>
+        <v>16.2571114000015</v>
       </c>
       <c r="F38" t="n">
-        <v>8</v>
+        <v>17.95368180015551</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.696570400154009</v>
       </c>
       <c r="I38" t="inlineStr"/>
     </row>
@@ -1370,16 +1370,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E39" t="n">
-        <v>18.70051168797724</v>
+        <v>18.75554420015551</v>
       </c>
       <c r="F39" t="n">
-        <v>18.70051168797724</v>
+        <v>18.75554420015551</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -1396,7 +1396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1510,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>14.53785325040005</v>
+        <v>9.735539275200855</v>
       </c>
       <c r="E6" t="n">
-        <v>9.982904800000192</v>
+        <v>9.779657955556011</v>
       </c>
     </row>
     <row r="7">
@@ -1680,10 +1680,10 @@
         <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>14.35195164373339</v>
+        <v>9.549637668534158</v>
       </c>
       <c r="E16" t="n">
-        <v>10.02485368888917</v>
+        <v>9.821606844444759</v>
       </c>
     </row>
     <row r="17">
@@ -1714,10 +1714,10 @@
         <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>12.93654337040007</v>
+        <v>8.134229395200995</v>
       </c>
       <c r="E18" t="n">
-        <v>10.34346924444472</v>
+        <v>10.14022240000031</v>
       </c>
     </row>
     <row r="19">
@@ -1748,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>10.70640176373341</v>
+        <v>5.904087788534239</v>
       </c>
       <c r="E20" t="n">
-        <v>11.09541813333361</v>
+        <v>10.89217128888912</v>
       </c>
     </row>
     <row r="21">
@@ -1776,7 +1776,7 @@
         <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" t="n">
         <v>11</v>
-      </c>
-      <c r="B23" t="n">
-        <v>19</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1824,10 +1824,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -1844,7 +1844,7 @@
         <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1875,10 +1875,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -1926,36 +1926,36 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>22.89694160666666</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>14.89376404660519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>15</v>
+      </c>
+      <c r="B32" t="n">
         <v>16</v>
       </c>
-      <c r="B32" t="n">
-        <v>8</v>
-      </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>19.20147951520092</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>15.01078684444494</v>
       </c>
     </row>
     <row r="33">
@@ -1963,16 +1963,16 @@
         <v>16</v>
       </c>
       <c r="B33" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>15.09571293549408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1980,16 +1980,16 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>18.30453790853468</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>15.2127357333348</v>
       </c>
     </row>
     <row r="35">
@@ -1997,7 +1997,7 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -2011,10 +2011,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -2045,10 +2045,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>18</v>
       </c>
       <c r="B39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -2096,10 +2096,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -2116,7 +2116,7 @@
         <v>19</v>
       </c>
       <c r="B42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -2133,7 +2133,7 @@
         <v>19</v>
       </c>
       <c r="B43" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -2147,10 +2147,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
+        <v>20</v>
+      </c>
+      <c r="B45" t="n">
         <v>21</v>
-      </c>
-      <c r="B45" t="n">
-        <v>28</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -2181,10 +2181,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -2198,19 +2198,19 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>20.95492506000002</v>
+        <v>0</v>
       </c>
       <c r="E47" t="n">
-        <v>8.235282222222281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2218,24 +2218,24 @@
         <v>23</v>
       </c>
       <c r="B48" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>14.95492506</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>8.235282222222258</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
+        <v>23</v>
+      </c>
+      <c r="B49" t="n">
         <v>24</v>
-      </c>
-      <c r="B49" t="n">
-        <v>20</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -2252,7 +2252,7 @@
         <v>24</v>
       </c>
       <c r="B50" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
@@ -2269,7 +2269,7 @@
         <v>24</v>
       </c>
       <c r="B51" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="53">
@@ -2303,16 +2303,16 @@
         <v>25</v>
       </c>
       <c r="B53" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>16.19645421520006</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>16.72008866882742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2320,7 +2320,7 @@
         <v>25</v>
       </c>
       <c r="B54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>25</v>
       </c>
       <c r="B55" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>25</v>
       </c>
       <c r="B56" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B57" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
@@ -2388,7 +2388,7 @@
         <v>27</v>
       </c>
       <c r="B58" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>27</v>
       </c>
       <c r="B59" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
@@ -2422,7 +2422,7 @@
         <v>27</v>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B61" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>29</v>
       </c>
       <c r="B62" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>19.67950851333336</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>15.86822626882742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2473,7 +2473,7 @@
         <v>29</v>
       </c>
       <c r="B63" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>29</v>
       </c>
       <c r="B64" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2504,10 +2504,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B65" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>30</v>
       </c>
       <c r="B66" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>30</v>
       </c>
       <c r="B67" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
@@ -2555,27 +2555,27 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" t="n">
         <v>36</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>16.51065469520106</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>15.86663351111261</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
@@ -2589,10 +2589,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>33</v>
       </c>
       <c r="B71" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -2623,10 +2623,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B72" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>34</v>
       </c>
       <c r="B73" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
+        <v>34</v>
+      </c>
+      <c r="B74" t="n">
         <v>35</v>
-      </c>
-      <c r="B74" t="n">
-        <v>36</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2674,10 +2674,10 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>35</v>
+      </c>
+      <c r="B75" t="n">
         <v>36</v>
-      </c>
-      <c r="B75" t="n">
-        <v>32</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
@@ -2694,7 +2694,7 @@
         <v>36</v>
       </c>
       <c r="B76" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -2708,19 +2708,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
+        <v>36</v>
+      </c>
+      <c r="B77" t="n">
         <v>37</v>
       </c>
-      <c r="B77" t="n">
-        <v>34</v>
-      </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>15.24337975520118</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>16.15191573333484</v>
       </c>
     </row>
     <row r="78">
@@ -2728,7 +2728,7 @@
         <v>37</v>
       </c>
       <c r="B78" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
@@ -2742,10 +2742,10 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
@@ -2762,7 +2762,7 @@
         <v>38</v>
       </c>
       <c r="B80" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>38</v>
       </c>
       <c r="B81" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B82" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B83" t="n">
         <v>38</v>
@@ -2827,75 +2827,75 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>16.74880827333343</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>18.58692864459995</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>17.65894754853337</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>9.16104240000019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
       </c>
       <c r="D86" t="n">
-        <v>16.17546152373338</v>
+        <v>12.85663357333368</v>
       </c>
       <c r="E86" t="n">
-        <v>9.364289244444635</v>
+        <v>8.957795555555975</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B87" t="n">
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>11.37314754853385</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>9.161042400000408</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B88" t="n">
         <v>2</v>
@@ -2912,10 +2912,10 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
+        <v>7</v>
+      </c>
+      <c r="B89" t="n">
         <v>2</v>
-      </c>
-      <c r="B89" t="n">
-        <v>3</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
+        <v>2</v>
+      </c>
+      <c r="B90" t="n">
         <v>3</v>
-      </c>
-      <c r="B90" t="n">
-        <v>4</v>
       </c>
       <c r="C90" t="n">
         <v>0</v>
@@ -2946,7 +2946,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B91" t="n">
         <v>4</v>
@@ -2963,10 +2963,10 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B93" t="n">
         <v>5</v>
@@ -2997,7 +2997,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B94" t="n">
         <v>5</v>
@@ -3014,10 +3014,10 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" t="n">
         <v>6</v>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
         <v>7</v>
@@ -3082,10 +3082,10 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B100" t="n">
         <v>8</v>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B101" t="n">
         <v>8</v>
@@ -3136,7 +3136,7 @@
         <v>15</v>
       </c>
       <c r="B102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B103" t="n">
         <v>9</v>
@@ -3167,19 +3167,19 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B104" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>18.41223357333337</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>9.057795555555714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -3187,24 +3187,24 @@
         <v>19</v>
       </c>
       <c r="B105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C105" t="n">
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>19.38324184666669</v>
+        <v>13.38324184666699</v>
       </c>
       <c r="E105" t="n">
-        <v>8.839180000000059</v>
+        <v>8.839180000000024</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3218,10 +3218,10 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" t="n">
         <v>0</v>
@@ -3269,10 +3269,10 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B110" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -3286,10 +3286,10 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B111" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" t="n">
         <v>0</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B112" t="n">
         <v>14</v>
@@ -3323,7 +3323,7 @@
         <v>16</v>
       </c>
       <c r="B113" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
@@ -3337,10 +3337,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B114" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C114" t="n">
         <v>0</v>
@@ -3354,10 +3354,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B115" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C115" t="n">
         <v>0</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B116" t="n">
         <v>16</v>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B117" t="n">
         <v>16</v>
@@ -3408,7 +3408,7 @@
         <v>18</v>
       </c>
       <c r="B118" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3422,10 +3422,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B119" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B120" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3456,10 +3456,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B121" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
@@ -3473,7 +3473,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B122" t="n">
         <v>18</v>
@@ -3490,10 +3490,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B123" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C123" t="n">
         <v>0</v>
@@ -3507,24 +3507,24 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B124" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>20.28018345333335</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>8.38723111111117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B125" t="n">
         <v>19</v>
@@ -3544,16 +3544,16 @@
         <v>21</v>
       </c>
       <c r="B126" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>14.28018345333333</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>8.387231111111142</v>
       </c>
     </row>
     <row r="127">
@@ -3561,7 +3561,7 @@
         <v>28</v>
       </c>
       <c r="B127" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3575,10 +3575,10 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B128" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C128" t="n">
         <v>0</v>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
+        <v>28</v>
+      </c>
+      <c r="B129" t="n">
         <v>21</v>
-      </c>
-      <c r="B129" t="n">
-        <v>23</v>
       </c>
       <c r="C129" t="n">
         <v>0</v>
@@ -3609,27 +3609,27 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B130" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B131" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3643,24 +3643,24 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B132" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B133" t="n">
         <v>24</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
+        <v>22</v>
+      </c>
+      <c r="B134" t="n">
         <v>24</v>
-      </c>
-      <c r="B134" t="n">
-        <v>25</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>26</v>
       </c>
       <c r="B135" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3711,24 +3711,24 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B136" t="n">
         <v>25</v>
       </c>
       <c r="C136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>18.26410024000005</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>16.18684182438297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B137" t="n">
         <v>25</v>
@@ -3745,7 +3745,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B138" t="n">
         <v>25</v>
@@ -3762,10 +3762,10 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B139" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C139" t="n">
         <v>0</v>
@@ -3779,24 +3779,24 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B140" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>19.54665429813343</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>17.95368180015551</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B141" t="n">
         <v>27</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B142" t="n">
         <v>27</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B143" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -3847,10 +3847,10 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
+        <v>35</v>
+      </c>
+      <c r="B144" t="n">
         <v>27</v>
-      </c>
-      <c r="B144" t="n">
-        <v>29</v>
       </c>
       <c r="C144" t="n">
         <v>0</v>
@@ -3864,24 +3864,24 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B145" t="n">
         <v>29</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>20.20611678666668</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>15.74961071327186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B146" t="n">
         <v>29</v>
@@ -3898,27 +3898,27 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B147" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>21.47339172666668</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>15.21432849104964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B148" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C148" t="n">
         <v>0</v>
@@ -3932,27 +3932,27 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B149" t="n">
         <v>30</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>17.77792963520107</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>15.33135128889037</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B150" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C150" t="n">
         <v>0</v>
@@ -3966,10 +3966,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B151" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -3983,10 +3983,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B152" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C152" t="n">
         <v>0</v>
@@ -4000,10 +4000,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B153" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C153" t="n">
         <v>0</v>
@@ -4017,10 +4017,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B154" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C154" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>35</v>
       </c>
       <c r="B155" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B156" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4068,10 +4068,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B157" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C157" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B158" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C158" t="n">
         <v>0</v>
@@ -4102,10 +4102,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B159" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C159" t="n">
         <v>0</v>
@@ -4119,10 +4119,10 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B160" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C160" t="n">
         <v>0</v>
@@ -4136,10 +4136,10 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B161" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C161" t="n">
         <v>0</v>
@@ -4153,10 +4153,10 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B162" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C162" t="n">
         <v>0</v>
@@ -4170,27 +4170,27 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B163" t="n">
         <v>38</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>23.63760827333332</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>18.33189613242168</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
+        <v>22</v>
+      </c>
+      <c r="B164" t="n">
         <v>38</v>
-      </c>
-      <c r="B164" t="n">
-        <v>23</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4204,18 +4204,52 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
+        <v>26</v>
+      </c>
+      <c r="B165" t="n">
         <v>38</v>
       </c>
-      <c r="B165" t="n">
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>38</v>
+      </c>
+      <c r="B166" t="n">
+        <v>23</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>38</v>
+      </c>
+      <c r="B167" t="n">
         <v>25</v>
       </c>
-      <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" t="n">
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
         <v>0</v>
       </c>
     </row>
